--- a/medicine/Mort/Cimetière_de_Columbiadamm/Cimetière_de_Columbiadamm.xlsx
+++ b/medicine/Mort/Cimetière_de_Columbiadamm/Cimetière_de_Columbiadamm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Columbiadamm</t>
+          <t>Cimetière_de_Columbiadamm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Columbiadamm est situé dans le quartier berlinois de Neukölln, Columbiadamm 122-140. Il a déjà porté plusieurs noms, à commencer par cimetière derrière le Hasenheide, Dennewitz-Friedhof, à partir de 1861 Nouveau cimetière de garnison (pour le distinguer de l'ancien cimetière de garnison), après 1919 cimetière de garnison, depuis les années 1970 officiellement cimetière de Columbiadamm, parfois aussi cimetière am Columbiadamm. Il s'étend sur 104 044 m2 et abrite actuellement un peu plus de 7 000 tombes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Columbiadamm</t>
+          <t>Cimetière_de_Columbiadamm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après que Frédéric-Guillaume IV a décidé de retirer sa garnison de l'étroitesse de la ville et de l'installer dans de nouvelles casernes sur le champ de Tempelhof, qui a toujours été utilisé comme terrain de parade et zone d'entraînement militaire, le petit cimetière derrière le Hasenheide est intégré et agrandi à partir de 1861 pour devenir le nouveau cimetière de garnison. Il fait don d'une chapelle pour le cimetière, sur laquelle il a également une influence en termes d'aménagement.
 Les soldats tombés des guerres de 1866, 1870/71, la guerre coloniale en Afrique et en particulier des Première et Seconde Guerre mondiale assurent une occupation continue. En temps de paix, les officiers se font volontiers construire des sépultures héréditaires coûteuses - conformément au style de l'époque.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Columbiadamm</t>
+          <t>Cimetière_de_Columbiadamm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des membres de divers régiments érigent un total de dix monuments commémoratifs de différentes qualités sur le vaste terrain afin de commémorer leurs camarades tombés au combat. Ces monuments datent pour la plupart des années 1920 et sont parfois complétés par des plaques commémoratives pour les morts de la Seconde Guerre mondiale.
 Le plus important artistiquement est probablement le monuments aux morts des guerres de 1866 et 1870/71. Il a été réalisé par Johannes Boese (de) (1888) et est considéré comme son œuvre principale. Un soldat prussien grandeur nature abaisse son drapeau en pleurant ses camarades tués. Juste à côté se trouve un monument de la même hauteur et de la même époque, dédié à une cinquantaine de soldats français qui ont succombé à leurs blessures dans les hôpitaux militaires de Berlin.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Columbiadamm</t>
+          <t>Cimetière_de_Columbiadamm</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Tombes de personnalités connues</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günter Elsner (de) (1916–1992), homme politique
-Hermann Fricke (mort en 1904), fusilier, mort dans un effort de sauvetage civil, pierre commémorative sur le pont Lichtenstein (de)[1]
+Hermann Fricke (mort en 1904), fusilier, mort dans un effort de sauvetage civil, pierre commémorative sur le pont Lichtenstein (de)
 Günter Bruno Fuchs (de) (1928-1977), poète et graphiste
 Tombe commune pour les 29 membres d'équipage du dirigeable naval L 2 (de), s'est écrasé à l'aéroport de Berlin-Johannisthal le 17 octobre 1913
 Viktor von Grumbkow (de) (mort en 1901), adjudant général du sultan
